--- a/26-Battle AI 战斗AI.xlsx
+++ b/26-Battle AI 战斗AI.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="Note标签" sheetId="2" r:id="rId2"/>
     <sheet name="参数设置" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="278">
   <si>
     <t>Auto Battle A.I. for Actors</t>
   </si>
@@ -1549,37 +1562,241 @@
     <t>&lt;AI Element Rate Influence: x.x&gt;</t>
   </si>
   <si>
-    <t>设置于元素率对TGR权重的影响率。</t>
+    <r>
+      <t>设置于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元素率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对TGR权重的影响率。</t>
+    </r>
   </si>
   <si>
     <t>&lt;Bypass AI Element Rate Influence&gt;</t>
   </si>
   <si>
-    <t>计算TGR时，角色/敌人不考虑元素率</t>
+    <r>
+      <t>计算TGR时，角色/敌人不考虑</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元素率</t>
+    </r>
   </si>
   <si>
     <t>&lt;AI EVA Influence: x.x&gt;</t>
   </si>
   <si>
-    <t>设置回避率对TGR权重的影响率</t>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回避率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对TGR权重的影响率</t>
+    </r>
   </si>
   <si>
     <t>&lt;Bypass AI EVA Influence&gt;</t>
   </si>
   <si>
-    <t>计算TGR时，无视回避率</t>
+    <r>
+      <t>计算TGR时，无视</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>回避率</t>
+    </r>
   </si>
   <si>
     <t>&lt;AI MEV Influence: x.x&gt;</t>
   </si>
   <si>
-    <t>设置魔法回避率对TGR权重的影响率</t>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔法回避率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对TGR权重的影响率</t>
+    </r>
   </si>
   <si>
     <t>&lt;Bypass AI MEV Influence&gt;</t>
   </si>
   <si>
-    <t>计算TGR时，无视魔法回避率</t>
+    <r>
+      <t>计算TGR时，无视</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔法回避率</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;AI PDR Influence: x.x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物理易伤率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对TGR权重的影响率</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Bypass AI PDR Influence&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>计算TGR时，无视</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>物理易伤率</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;AI MDR Influence: x.x&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>设置</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔法易伤率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>对TGR权重的影响率</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;Bypass AI MDR Influence&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>计算TGR时，无视</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>魔法易伤率</t>
+    </r>
   </si>
   <si>
     <t>A.I. General Settings</t>
@@ -1615,7 +1832,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1756,34 +1973,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1797,14 +1986,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1844,6 +2025,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1894,7 +2090,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1907,8 +2124,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF00B0F0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1921,9 +2139,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B0F0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1950,55 +2167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2016,31 +2191,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,6 +2227,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2076,7 +2251,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,6 +2299,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2113,6 +2324,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2308,21 +2525,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2351,6 +2553,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2409,148 +2626,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2588,6 +2805,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2664,9 +2884,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -2753,52 +2970,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3100,7 +3317,7 @@
   <sheetPr/>
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:C12"/>
     </sheetView>
   </sheetViews>
@@ -3122,18 +3339,18 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="H1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" ht="18.75" spans="1:8">
       <c r="A2" s="1"/>
-      <c r="D2" s="11"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" ht="18.75" spans="1:8">
       <c r="A3" s="1"/>
-      <c r="D3" s="11"/>
-      <c r="H3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" ht="18.75" spans="1:12">
       <c r="A4" s="1" t="s">
@@ -3142,22 +3359,22 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="J4" s="59"/>
@@ -3165,28 +3382,28 @@
       <c r="L4" s="59"/>
     </row>
     <row r="5" ht="27" spans="1:12">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="60" t="s">
@@ -3197,28 +3414,28 @@
       <c r="L5" s="59"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I6" s="62" t="s">
@@ -3229,7 +3446,7 @@
       <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B7" t="s">
@@ -3238,19 +3455,19 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="24" t="s">
+      <c r="H7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="63" t="s">
@@ -3261,28 +3478,28 @@
       <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="28" t="s">
+      <c r="H8" s="29" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="64" t="s">
@@ -3319,8 +3536,8 @@
       <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" t="s">
         <v>31</v>
       </c>
@@ -3343,8 +3560,8 @@
       <c r="A20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="23" ht="18.75" spans="1:3">
       <c r="A23" s="1" t="s">
@@ -3385,7 +3602,7 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="31" t="s">
         <v>47</v>
       </c>
       <c r="B29" t="s">
@@ -3396,41 +3613,41 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="31"/>
+      <c r="C30" s="32"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="32" t="s">
+      <c r="A31" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35" t="s">
+      <c r="C31" s="35"/>
+      <c r="D31" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="36" t="s">
+      <c r="A32" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="38"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="39" t="s">
@@ -3440,10 +3657,10 @@
         <v>58</v>
       </c>
       <c r="C33" s="41"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="42" t="s">
@@ -3463,13 +3680,13 @@
       <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="15"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="49" t="s">
         <v>64</v>
       </c>
@@ -3480,7 +3697,7 @@
       <c r="I35" s="48"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B36" t="s">
@@ -3500,10 +3717,10 @@
       <c r="A37" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="27"/>
       <c r="D37" s="56" t="s">
         <v>70</v>
       </c>
@@ -3514,13 +3731,13 @@
       <c r="I37" s="48"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="15"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="49" t="s">
         <v>73</v>
       </c>
@@ -3531,7 +3748,7 @@
       <c r="I38" s="48"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="37" t="s">
         <v>74</v>
       </c>
       <c r="B39" t="s">
@@ -3551,10 +3768,10 @@
       <c r="A40" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="26"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="56" t="s">
         <v>79</v>
       </c>
@@ -3565,13 +3782,13 @@
       <c r="I40" s="48"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="15"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="49" t="s">
         <v>82</v>
       </c>
@@ -3582,7 +3799,7 @@
       <c r="I41" s="48"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="37" t="s">
         <v>83</v>
       </c>
       <c r="B42" t="s">
@@ -3602,10 +3819,10 @@
       <c r="A43" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B43" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C43" s="26"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="56" t="s">
         <v>88</v>
       </c>
@@ -3616,13 +3833,13 @@
       <c r="I43" s="48"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="32" t="s">
+      <c r="A44" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C44" s="15"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="49" t="s">
         <v>91</v>
       </c>
@@ -3633,7 +3850,7 @@
       <c r="I44" s="48"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="36" t="s">
+      <c r="A45" s="37" t="s">
         <v>92</v>
       </c>
       <c r="B45" t="s">
@@ -3650,7 +3867,7 @@
       <c r="I45" s="48"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="37" t="s">
         <v>95</v>
       </c>
       <c r="B46" t="s">
@@ -3667,7 +3884,7 @@
       <c r="I46" s="48"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="37" t="s">
         <v>98</v>
       </c>
       <c r="B47" t="s">
@@ -3684,7 +3901,7 @@
       <c r="I47" s="48"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="36" t="s">
+      <c r="A48" s="37" t="s">
         <v>101</v>
       </c>
       <c r="B48" t="s">
@@ -3704,10 +3921,10 @@
       <c r="A49" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="C49" s="26"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="56" t="s">
         <v>106</v>
       </c>
@@ -3718,13 +3935,13 @@
       <c r="I49" s="48"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="15"/>
+      <c r="C50" s="16"/>
       <c r="D50" s="49" t="s">
         <v>109</v>
       </c>
@@ -3735,7 +3952,7 @@
       <c r="I50" s="48"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="36" t="s">
+      <c r="A51" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B51" t="s">
@@ -3752,7 +3969,7 @@
       <c r="I51" s="48"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="36" t="s">
+      <c r="A52" s="37" t="s">
         <v>113</v>
       </c>
       <c r="B52" t="s">
@@ -3769,7 +3986,7 @@
       <c r="I52" s="48"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="37" t="s">
         <v>116</v>
       </c>
       <c r="B53" t="s">
@@ -3786,7 +4003,7 @@
       <c r="I53" s="48"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="37" t="s">
         <v>119</v>
       </c>
       <c r="B54" t="s">
@@ -3803,7 +4020,7 @@
       <c r="I54" s="48"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="37" t="s">
         <v>122</v>
       </c>
       <c r="B55" t="s">
@@ -3820,7 +4037,7 @@
       <c r="I55" s="48"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="37" t="s">
         <v>125</v>
       </c>
       <c r="B56" t="s">
@@ -3837,7 +4054,7 @@
       <c r="I56" s="48"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="37" t="s">
         <v>128</v>
       </c>
       <c r="B57" t="s">
@@ -3854,7 +4071,7 @@
       <c r="I57" s="48"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="36" t="s">
+      <c r="A58" s="37" t="s">
         <v>131</v>
       </c>
       <c r="B58" t="s">
@@ -3888,13 +4105,13 @@
       <c r="I59" s="48"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="32" t="s">
+      <c r="A60" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C60" s="15"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="49" t="s">
         <v>139</v>
       </c>
@@ -3905,7 +4122,7 @@
       <c r="I60" s="48"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="37" t="s">
         <v>140</v>
       </c>
       <c r="B61" t="s">
@@ -3922,7 +4139,7 @@
       <c r="I61" s="48"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="37" t="s">
         <v>143</v>
       </c>
       <c r="B62" t="s">
@@ -3939,7 +4156,7 @@
       <c r="I62" s="48"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="37" t="s">
         <v>146</v>
       </c>
       <c r="B63" t="s">
@@ -3956,7 +4173,7 @@
       <c r="I63" s="48"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="37" t="s">
         <v>149</v>
       </c>
       <c r="B64" t="s">
@@ -3973,7 +4190,7 @@
       <c r="I64" s="48"/>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65" s="36" t="s">
+      <c r="A65" s="37" t="s">
         <v>152</v>
       </c>
       <c r="B65" t="s">
@@ -3990,7 +4207,7 @@
       <c r="I65" s="48"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="36" t="s">
+      <c r="A66" s="37" t="s">
         <v>155</v>
       </c>
       <c r="B66" t="s">
@@ -4007,7 +4224,7 @@
       <c r="I66" s="48"/>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="37" t="s">
         <v>158</v>
       </c>
       <c r="B67" t="s">
@@ -4024,7 +4241,7 @@
       <c r="I67" s="48"/>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68" s="36" t="s">
+      <c r="A68" s="37" t="s">
         <v>161</v>
       </c>
       <c r="B68" t="s">
@@ -4058,13 +4275,13 @@
       <c r="I69" s="48"/>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="15"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="49" t="s">
         <v>169</v>
       </c>
@@ -4075,10 +4292,10 @@
       <c r="I70" s="48"/>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71" s="36" t="s">
+      <c r="A71" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="B71" s="20" t="s">
+      <c r="B71" s="21" t="s">
         <v>171</v>
       </c>
       <c r="C71" s="52"/>
@@ -4095,10 +4312,10 @@
       <c r="A72" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="25" t="s">
+      <c r="B72" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="C72" s="26"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="56" t="s">
         <v>175</v>
       </c>
@@ -4238,10 +4455,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4576,7 +4793,7 @@
       <c r="A43" t="s">
         <v>248</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C43" t="s">
@@ -4587,7 +4804,7 @@
       <c r="A44" t="s">
         <v>250</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C44" t="s">
@@ -4598,7 +4815,7 @@
       <c r="A45" t="s">
         <v>252</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C45" t="s">
@@ -4609,7 +4826,7 @@
       <c r="A46" t="s">
         <v>254</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="11" t="s">
         <v>255</v>
       </c>
       <c r="C46" t="s">
@@ -4620,7 +4837,7 @@
       <c r="A47" t="s">
         <v>256</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C47" t="s">
@@ -4631,10 +4848,54 @@
       <c r="A48" t="s">
         <v>258</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="11" t="s">
         <v>259</v>
       </c>
       <c r="C48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>260</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>264</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>266</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" t="s">
         <v>182</v>
       </c>
     </row>
@@ -4666,34 +4927,34 @@
   <sheetData>
     <row r="1" ht="18.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4701,12 +4962,12 @@
     </row>
     <row r="8" ht="18.75" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
